--- a/ lxyppc-oled/STM32/oleddrv/Resource.xlsx
+++ b/ lxyppc-oled/STM32/oleddrv/Resource.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BattaryIcon" sheetId="2" r:id="rId1"/>
     <sheet name="StringResource" sheetId="3" r:id="rId2"/>
+    <sheet name="ClockFace" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -644,9 +645,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -662,20 +660,58 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -975,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC53"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
       <selection activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
@@ -983,7 +1019,7 @@
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="25" width="2.25" customWidth="1"/>
-    <col min="27" max="27" width="12.125" customWidth="1"/>
+    <col min="27" max="27" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -992,23 +1028,23 @@
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3">
@@ -1207,7 +1243,7 @@
       <c r="Z5" t="s">
         <v>6</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AB5" t="s">
@@ -1479,13 +1515,13 @@
       <c r="Z9" t="s">
         <v>9</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AA9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="AB9" t="s">
         <v>10</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AC9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1690,173 +1726,173 @@
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <f>A3+A4*2+A5*4+A6*8+A7*16+A8*32+A9*64+A10*128</f>
         <v>255</v>
       </c>
-      <c r="B15" s="4">
-        <f t="shared" ref="B15:U15" si="0">B3+B4*2+B5*4+B6*8+B7*16+B8*32+B9*64+B10*128</f>
+      <c r="B15" s="3">
+        <f t="shared" ref="B15:T15" si="0">B3+B4*2+B5*4+B6*8+B7*16+B8*32+B9*64+B10*128</f>
         <v>255</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <f>U3+U4*2+U5*4+U6*8+U7*16+U8*32+U9*64+U10*128</f>
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <f>A11+A12*2</f>
         <v>3</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <f t="shared" ref="B16:U16" si="1">B11+B12*2</f>
         <v>3</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="T16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="4">
+      <c r="T16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1867,23 +1903,23 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="1:21">
       <c r="A22">
@@ -2541,173 +2577,173 @@
       </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <f>A22+A23*2+A24*4+A25*8+A26*16+A27*32+A28*64+A29*128</f>
         <v>255</v>
       </c>
-      <c r="B34" s="4">
-        <f t="shared" ref="B34:U34" si="2">B22+B23*2+B24*4+B25*8+B26*16+B27*32+B28*64+B29*128</f>
-        <v>1</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="3">
+        <f t="shared" ref="B34:T34" si="2">B22+B23*2+B24*4+B25*8+B26*16+B27*32+B28*64+B29*128</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <f t="shared" si="2"/>
         <v>201</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="3">
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="3">
         <f t="shared" si="2"/>
         <v>237</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="3">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="3">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="3">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="3">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R34" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S34" s="4">
+      <c r="S34" s="3">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="T34" s="4">
+      <c r="T34" s="3">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="U34" s="4">
+      <c r="U34" s="3">
         <f>U22+U23*2+U24*4+U25*8+U26*16+U27*32+U28*64+U29*128</f>
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <f>A30+A31*2</f>
         <v>3</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <f t="shared" ref="B35:U35" si="3">B30+B31*2</f>
         <v>2</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R35" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="S35" s="4">
+      <c r="S35" s="3">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="T35" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="4">
+      <c r="T35" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2718,23 +2754,23 @@
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
     </row>
     <row r="40" spans="1:21">
       <c r="A40">
@@ -3392,173 +3428,173 @@
       </c>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <f>A40+A41*2+A42*4+A43*8+A44*16+A45*32+A46*64+A47*128</f>
         <v>255</v>
       </c>
-      <c r="B52" s="4">
-        <f t="shared" ref="B52:U52" si="4">B40+B41*2+B42*4+B43*8+B44*16+B45*32+B46*64+B47*128</f>
-        <v>1</v>
-      </c>
-      <c r="C52" s="4">
+      <c r="B52" s="3">
+        <f t="shared" ref="B52:T52" si="4">B40+B41*2+B42*4+B43*8+B44*16+B45*32+B46*64+B47*128</f>
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="O52" s="4">
+      <c r="O52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="Q52" s="3">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
-      <c r="R52" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S52" s="4">
+      <c r="R52" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S52" s="3">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
-      <c r="T52" s="4">
+      <c r="T52" s="3">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="U52" s="4">
+      <c r="U52" s="3">
         <f>U40+U41*2+U42*4+U43*8+U44*16+U45*32+U46*64+U47*128</f>
         <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <f>A48+A49*2</f>
         <v>3</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <f t="shared" ref="B53:U53" si="5">B48+B49*2</f>
         <v>2</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="Q53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="R53" s="4">
+      <c r="R53" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="S53" s="4">
+      <c r="S53" s="3">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="T53" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="4">
+      <c r="T53" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3571,7 +3607,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="V1:X1048576 Y1:Y11 Y13:Y1048576 U13 A3:U12 A14:U33 A36:U51 A54:U1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3584,7 +3620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
     </sheetView>
@@ -3596,34 +3632,34 @@
     <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="5.75" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="6" customWidth="1"/>
     <col min="8" max="8" width="6.75" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="4" style="9" customWidth="1"/>
-    <col min="12" max="12" width="7" style="10" customWidth="1"/>
-    <col min="13" max="13" width="6.25" style="10" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4" style="7" customWidth="1"/>
+    <col min="12" max="12" width="7" style="8" customWidth="1"/>
+    <col min="13" max="13" width="6.25" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="10"/>
+      <c r="I1" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3640,27 +3676,27 @@
       <c r="D2" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="6" t="str">
+      <c r="F2" s="5" t="str">
         <f>CONCATENATE("#define   ",A2,"         ")</f>
         <v xml:space="preserve">#define   STR_ROOT         </v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>B2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="9" t="str">
+      <c r="I2" s="7" t="str">
         <f>IF(EXACT($A2,"STR_LAST"),"};",CONCATENATE("  [",$A2,"]"))</f>
         <v xml:space="preserve">  [STR_ROOT]</v>
       </c>
-      <c r="J2" s="9" t="str">
+      <c r="J2" s="7" t="str">
         <f>IF(EXACT($A2,"STR_LAST"),"",CONCATENATE("= ","""",$C2,""","))</f>
         <v>= "Presstoquit...",</v>
       </c>
-      <c r="L2" s="10" t="str">
+      <c r="L2" s="8" t="str">
         <f>IF(EXACT($A2,"STR_LAST"),"};",CONCATENATE("  [",$A2,"]"))</f>
         <v xml:space="preserve">  [STR_ROOT]</v>
       </c>
-      <c r="M2" s="10" t="str">
+      <c r="M2" s="8" t="str">
         <f>IF(EXACT($A2,"STR_LAST"),"",CONCATENATE("= ","""",$D2,""","))</f>
         <v>= "按中键退出",</v>
       </c>
@@ -3678,27 +3714,27 @@
       <c r="D3" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="6" t="str">
+      <c r="F3" s="5" t="str">
         <f t="shared" ref="F3:F53" si="0">CONCATENATE("#define   ",A3,"         ")</f>
         <v xml:space="preserve">#define   STR_FEB         </v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G54" si="1">B3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="7" t="str">
         <f t="shared" ref="I3:I54" si="2">IF(EXACT($A3,"STR_LAST"),"};",CONCATENATE("  [",$A3,"]"))</f>
         <v xml:space="preserve">  [STR_FEB]</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="7" t="str">
         <f t="shared" ref="J3:J54" si="3">IF(EXACT($A3,"STR_LAST"),"",CONCATENATE("= ","""",$C3,""","))</f>
         <v>= "Quit",</v>
       </c>
-      <c r="L3" s="10" t="str">
+      <c r="L3" s="8" t="str">
         <f t="shared" ref="L3:L54" si="4">IF(EXACT($A3,"STR_LAST"),"};",CONCATENATE("  [",$A3,"]"))</f>
         <v xml:space="preserve">  [STR_FEB]</v>
       </c>
-      <c r="M3" s="10" t="str">
+      <c r="M3" s="8" t="str">
         <f t="shared" ref="M3:M54" si="5">IF(EXACT($A3,"STR_LAST"),"",CONCATENATE("= ","""",$D3,""","))</f>
         <v>= "退出",</v>
       </c>
@@ -3716,27 +3752,27 @@
       <c r="D4" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="6" t="str">
+      <c r="F4" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_STATUS         </v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I4" s="9" t="str">
+      <c r="I4" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_STATUS]</v>
       </c>
-      <c r="J4" s="9" t="str">
+      <c r="J4" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Status",</v>
       </c>
-      <c r="L4" s="10" t="str">
+      <c r="L4" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_STATUS]</v>
       </c>
-      <c r="M4" s="10" t="str">
+      <c r="M4" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "设备状态",</v>
       </c>
@@ -3754,27 +3790,27 @@
       <c r="D5" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="F5" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_TEST         </v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I5" s="9" t="str">
+      <c r="I5" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_TEST]</v>
       </c>
-      <c r="J5" s="9" t="str">
+      <c r="J5" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Test",</v>
       </c>
-      <c r="L5" s="10" t="str">
+      <c r="L5" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_TEST]</v>
       </c>
-      <c r="M5" s="10" t="str">
+      <c r="M5" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "测试",</v>
       </c>
@@ -3792,27 +3828,27 @@
       <c r="D6" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="6" t="str">
+      <c r="F6" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_SETTING         </v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I6" s="9" t="str">
+      <c r="I6" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_SETTING]</v>
       </c>
-      <c r="J6" s="9" t="str">
+      <c r="J6" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Setting",</v>
       </c>
-      <c r="L6" s="10" t="str">
+      <c r="L6" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_SETTING]</v>
       </c>
-      <c r="M6" s="10" t="str">
+      <c r="M6" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "设置",</v>
       </c>
@@ -3830,27 +3866,27 @@
       <c r="D7" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="6" t="str">
+      <c r="F7" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_ABOUT         </v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I7" s="9" t="str">
+      <c r="I7" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_ABOUT]</v>
       </c>
-      <c r="J7" s="9" t="str">
+      <c r="J7" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "About",</v>
       </c>
-      <c r="L7" s="10" t="str">
+      <c r="L7" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_ABOUT]</v>
       </c>
-      <c r="M7" s="10" t="str">
+      <c r="M7" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "关于",</v>
       </c>
@@ -3868,27 +3904,27 @@
       <c r="D8" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="6" t="str">
+      <c r="F8" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_SETTING_CONTRAST         </v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I8" s="9" t="str">
+      <c r="I8" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_SETTING_CONTRAST]</v>
       </c>
-      <c r="J8" s="9" t="str">
+      <c r="J8" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Contrast",</v>
       </c>
-      <c r="L8" s="10" t="str">
+      <c r="L8" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_SETTING_CONTRAST]</v>
       </c>
-      <c r="M8" s="10" t="str">
+      <c r="M8" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "对比度",</v>
       </c>
@@ -3906,27 +3942,27 @@
       <c r="D9" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="6" t="str">
+      <c r="F9" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_SETTING_TIME         </v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I9" s="9" t="str">
+      <c r="I9" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_SETTING_TIME]</v>
       </c>
-      <c r="J9" s="9" t="str">
+      <c r="J9" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Time",</v>
       </c>
-      <c r="L9" s="10" t="str">
+      <c r="L9" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_SETTING_TIME]</v>
       </c>
-      <c r="M9" s="10" t="str">
+      <c r="M9" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "时间",</v>
       </c>
@@ -3944,27 +3980,27 @@
       <c r="D10" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="6" t="str">
+      <c r="F10" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_STATUS_BAT         </v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I10" s="9" t="str">
+      <c r="I10" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_STATUS_BAT]</v>
       </c>
-      <c r="J10" s="9" t="str">
+      <c r="J10" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Battary",</v>
       </c>
-      <c r="L10" s="10" t="str">
+      <c r="L10" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_STATUS_BAT]</v>
       </c>
-      <c r="M10" s="10" t="str">
+      <c r="M10" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "电池",</v>
       </c>
@@ -3982,27 +4018,27 @@
       <c r="D11" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="6" t="str">
+      <c r="F11" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_STATUS_GRAVITY         </v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I11" s="9" t="str">
+      <c r="I11" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_STATUS_GRAVITY]</v>
       </c>
-      <c r="J11" s="9" t="str">
+      <c r="J11" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Gravity",</v>
       </c>
-      <c r="L11" s="10" t="str">
+      <c r="L11" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_STATUS_GRAVITY]</v>
       </c>
-      <c r="M11" s="10" t="str">
+      <c r="M11" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "重力加速度",</v>
       </c>
@@ -4020,27 +4056,27 @@
       <c r="D12" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="6" t="str">
+      <c r="F12" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_SETTING_LANGUAGE         </v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I12" s="9" t="str">
+      <c r="I12" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_SETTING_LANGUAGE]</v>
       </c>
-      <c r="J12" s="9" t="str">
+      <c r="J12" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Language",</v>
       </c>
-      <c r="L12" s="10" t="str">
+      <c r="L12" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_SETTING_LANGUAGE]</v>
       </c>
-      <c r="M12" s="10" t="str">
+      <c r="M12" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "语言",</v>
       </c>
@@ -4058,27 +4094,27 @@
       <c r="D13" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="6" t="str">
+      <c r="F13" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_LANG_ENG         </v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I13" s="9" t="str">
+      <c r="I13" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_LANG_ENG]</v>
       </c>
-      <c r="J13" s="9" t="str">
+      <c r="J13" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "English",</v>
       </c>
-      <c r="L13" s="10" t="str">
+      <c r="L13" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_LANG_ENG]</v>
       </c>
-      <c r="M13" s="10" t="str">
+      <c r="M13" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "英语",</v>
       </c>
@@ -4096,27 +4132,27 @@
       <c r="D14" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="6" t="str">
+      <c r="F14" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_LANG_CHS         </v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I14" s="9" t="str">
+      <c r="I14" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_LANG_CHS]</v>
       </c>
-      <c r="J14" s="9" t="str">
+      <c r="J14" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "ChineseS",</v>
       </c>
-      <c r="L14" s="10" t="str">
+      <c r="L14" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_LANG_CHS]</v>
       </c>
-      <c r="M14" s="10" t="str">
+      <c r="M14" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "简体中文",</v>
       </c>
@@ -4134,27 +4170,27 @@
       <c r="D15" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="6" t="str">
+      <c r="F15" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_CHANGE_CONTRAST         </v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I15" s="9" t="str">
+      <c r="I15" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_CHANGE_CONTRAST]</v>
       </c>
-      <c r="J15" s="9" t="str">
+      <c r="J15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Changecontrast:",</v>
       </c>
-      <c r="L15" s="10" t="str">
+      <c r="L15" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_CHANGE_CONTRAST]</v>
       </c>
-      <c r="M15" s="10" t="str">
+      <c r="M15" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "更改对比度:",</v>
       </c>
@@ -4172,27 +4208,27 @@
       <c r="D16" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="6" t="str">
+      <c r="F16" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_SET_TIME         </v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I16" s="9" t="str">
+      <c r="I16" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_SET_TIME]</v>
       </c>
-      <c r="J16" s="9" t="str">
+      <c r="J16" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Settime:",</v>
       </c>
-      <c r="L16" s="10" t="str">
+      <c r="L16" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_SET_TIME]</v>
       </c>
-      <c r="M16" s="10" t="str">
+      <c r="M16" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "设置时间:",</v>
       </c>
@@ -4210,27 +4246,27 @@
       <c r="D17" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="6" t="str">
+      <c r="F17" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_VIEW_BATTARY         </v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I17" s="9" t="str">
+      <c r="I17" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_VIEW_BATTARY]</v>
       </c>
-      <c r="J17" s="9" t="str">
+      <c r="J17" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Battarystatus:",</v>
       </c>
-      <c r="L17" s="10" t="str">
+      <c r="L17" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_VIEW_BATTARY]</v>
       </c>
-      <c r="M17" s="10" t="str">
+      <c r="M17" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "电池状态:",</v>
       </c>
@@ -4248,27 +4284,27 @@
       <c r="D18" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="6" t="str">
+      <c r="F18" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_BAT_CHARGE         </v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I18" s="9" t="str">
+      <c r="I18" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_BAT_CHARGE]</v>
       </c>
-      <c r="J18" s="9" t="str">
+      <c r="J18" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Charging...",</v>
       </c>
-      <c r="L18" s="10" t="str">
+      <c r="L18" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_BAT_CHARGE]</v>
       </c>
-      <c r="M18" s="10" t="str">
+      <c r="M18" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "充电中 ...",</v>
       </c>
@@ -4286,27 +4322,27 @@
       <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="6" t="str">
+      <c r="F19" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_BAT_FULL         </v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I19" s="9" t="str">
+      <c r="I19" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_BAT_FULL]</v>
       </c>
-      <c r="J19" s="9" t="str">
+      <c r="J19" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Chargefinish",</v>
       </c>
-      <c r="L19" s="10" t="str">
+      <c r="L19" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_BAT_FULL]</v>
       </c>
-      <c r="M19" s="10" t="str">
+      <c r="M19" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "充电完成",</v>
       </c>
@@ -4324,27 +4360,27 @@
       <c r="D20" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="6" t="str">
+      <c r="F20" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_BAT_NORMAL         </v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I20" s="9" t="str">
+      <c r="I20" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_BAT_NORMAL]</v>
       </c>
-      <c r="J20" s="9" t="str">
+      <c r="J20" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Disconnected",</v>
       </c>
-      <c r="L20" s="10" t="str">
+      <c r="L20" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_BAT_NORMAL]</v>
       </c>
-      <c r="M20" s="10" t="str">
+      <c r="M20" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "断开连接",</v>
       </c>
@@ -4362,27 +4398,27 @@
       <c r="D21" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="6" t="str">
+      <c r="F21" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_BAT_CAPACITY         </v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I21" s="9" t="str">
+      <c r="I21" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_BAT_CAPACITY]</v>
       </c>
-      <c r="J21" s="9" t="str">
+      <c r="J21" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Capacity:",</v>
       </c>
-      <c r="L21" s="10" t="str">
+      <c r="L21" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_BAT_CAPACITY]</v>
       </c>
-      <c r="M21" s="10" t="str">
+      <c r="M21" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "当前容量:",</v>
       </c>
@@ -4400,27 +4436,27 @@
       <c r="D22" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="6" t="str">
+      <c r="F22" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_BAT_VOLTAGE         </v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I22" s="9" t="str">
+      <c r="I22" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_BAT_VOLTAGE]</v>
       </c>
-      <c r="J22" s="9" t="str">
+      <c r="J22" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Voltage:",</v>
       </c>
-      <c r="L22" s="10" t="str">
+      <c r="L22" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_BAT_VOLTAGE]</v>
       </c>
-      <c r="M22" s="10" t="str">
+      <c r="M22" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "当前电压: ",</v>
       </c>
@@ -4438,27 +4474,27 @@
       <c r="D23" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="6" t="str">
+      <c r="F23" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_ABOUT_0         </v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I23" s="9" t="str">
+      <c r="I23" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_ABOUT_0]</v>
       </c>
-      <c r="J23" s="9" t="str">
+      <c r="J23" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "OledProject1.0",</v>
       </c>
-      <c r="L23" s="10" t="str">
+      <c r="L23" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_ABOUT_0]</v>
       </c>
-      <c r="M23" s="10" t="str">
+      <c r="M23" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "Oled 项目 1.0",</v>
       </c>
@@ -4476,27 +4512,27 @@
       <c r="D24" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="6" t="str">
+      <c r="F24" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_ABOUT_1         </v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I24" s="9" t="str">
+      <c r="I24" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_ABOUT_1]</v>
       </c>
-      <c r="J24" s="9" t="str">
+      <c r="J24" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "lxyppc@163.com",</v>
       </c>
-      <c r="L24" s="10" t="str">
+      <c r="L24" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_ABOUT_1]</v>
       </c>
-      <c r="M24" s="10" t="str">
+      <c r="M24" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "lxyppc@163.com",</v>
       </c>
@@ -4514,27 +4550,27 @@
       <c r="D25" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="6" t="str">
+      <c r="F25" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_ABOUT_2         </v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I25" s="9" t="str">
+      <c r="I25" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_ABOUT_2]</v>
       </c>
-      <c r="J25" s="9" t="str">
+      <c r="J25" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Allrightsreserved",</v>
       </c>
-      <c r="L25" s="10" t="str">
+      <c r="L25" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_ABOUT_2]</v>
       </c>
-      <c r="M25" s="10" t="str">
+      <c r="M25" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "版权所有",</v>
       </c>
@@ -4552,27 +4588,27 @@
       <c r="D26" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="6" t="str">
+      <c r="F26" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_OK         </v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I26" s="9" t="str">
+      <c r="I26" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_OK]</v>
       </c>
-      <c r="J26" s="9" t="str">
+      <c r="J26" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "OK",</v>
       </c>
-      <c r="L26" s="10" t="str">
+      <c r="L26" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_OK]</v>
       </c>
-      <c r="M26" s="10" t="str">
+      <c r="M26" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "确定",</v>
       </c>
@@ -4590,27 +4626,27 @@
       <c r="D27" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="6" t="str">
+      <c r="F27" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_CANCEL         </v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I27" s="9" t="str">
+      <c r="I27" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_CANCEL]</v>
       </c>
-      <c r="J27" s="9" t="str">
+      <c r="J27" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Cancel",</v>
       </c>
-      <c r="L27" s="10" t="str">
+      <c r="L27" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_CANCEL]</v>
       </c>
-      <c r="M27" s="10" t="str">
+      <c r="M27" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "取消",</v>
       </c>
@@ -4628,27 +4664,27 @@
       <c r="D28" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="6" t="str">
+      <c r="F28" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_JAN         </v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I28" s="9" t="str">
+      <c r="I28" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_JAN]</v>
       </c>
-      <c r="J28" s="9" t="str">
+      <c r="J28" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Jan",</v>
       </c>
-      <c r="L28" s="10" t="str">
+      <c r="L28" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_JAN]</v>
       </c>
-      <c r="M28" s="10" t="str">
+      <c r="M28" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= " 1月",</v>
       </c>
@@ -4666,27 +4702,27 @@
       <c r="D29" t="s">
         <v>147</v>
       </c>
-      <c r="F29" s="6" t="str">
+      <c r="F29" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_FEB         </v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I29" s="9" t="str">
+      <c r="I29" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_FEB]</v>
       </c>
-      <c r="J29" s="9" t="str">
+      <c r="J29" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Feb",</v>
       </c>
-      <c r="L29" s="10" t="str">
+      <c r="L29" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_FEB]</v>
       </c>
-      <c r="M29" s="10" t="str">
+      <c r="M29" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= " 2月",</v>
       </c>
@@ -4704,27 +4740,27 @@
       <c r="D30" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="6" t="str">
+      <c r="F30" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_MAR         </v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="I30" s="9" t="str">
+      <c r="I30" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_MAR]</v>
       </c>
-      <c r="J30" s="9" t="str">
+      <c r="J30" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Mar",</v>
       </c>
-      <c r="L30" s="10" t="str">
+      <c r="L30" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_MAR]</v>
       </c>
-      <c r="M30" s="10" t="str">
+      <c r="M30" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= " 3月",</v>
       </c>
@@ -4742,27 +4778,27 @@
       <c r="D31" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="6" t="str">
+      <c r="F31" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_APR         </v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="I31" s="9" t="str">
+      <c r="I31" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_APR]</v>
       </c>
-      <c r="J31" s="9" t="str">
+      <c r="J31" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Apr",</v>
       </c>
-      <c r="L31" s="10" t="str">
+      <c r="L31" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_APR]</v>
       </c>
-      <c r="M31" s="10" t="str">
+      <c r="M31" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= " 4月",</v>
       </c>
@@ -4780,27 +4816,27 @@
       <c r="D32" t="s">
         <v>150</v>
       </c>
-      <c r="F32" s="6" t="str">
+      <c r="F32" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_MAY         </v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I32" s="9" t="str">
+      <c r="I32" s="7" t="str">
         <f>IF(EXACT($A32,"STR_LAST"),"};",CONCATENATE("  [",$A32,"]"))</f>
         <v xml:space="preserve">  [STR_MAY]</v>
       </c>
-      <c r="J32" s="9" t="str">
+      <c r="J32" s="7" t="str">
         <f>IF(EXACT($A32,"STR_LAST"),"",CONCATENATE("= ","""",$C32,""","))</f>
         <v>= "May",</v>
       </c>
-      <c r="L32" s="10" t="str">
+      <c r="L32" s="8" t="str">
         <f>IF(EXACT($A32,"STR_LAST"),"};",CONCATENATE("  [",$A32,"]"))</f>
         <v xml:space="preserve">  [STR_MAY]</v>
       </c>
-      <c r="M32" s="10" t="str">
+      <c r="M32" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= " 5月",</v>
       </c>
@@ -4818,27 +4854,27 @@
       <c r="D33" t="s">
         <v>151</v>
       </c>
-      <c r="F33" s="6" t="str">
+      <c r="F33" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_JUN         </v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="I33" s="9" t="str">
+      <c r="I33" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_JUN]</v>
       </c>
-      <c r="J33" s="9" t="str">
+      <c r="J33" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Jun",</v>
       </c>
-      <c r="L33" s="10" t="str">
+      <c r="L33" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_JUN]</v>
       </c>
-      <c r="M33" s="10" t="str">
+      <c r="M33" s="8" t="str">
         <f>IF(EXACT($A33,"STR_LAST"),"",CONCATENATE("= ","""",$D33,""","))</f>
         <v>= " 6月",</v>
       </c>
@@ -4856,27 +4892,27 @@
       <c r="D34" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="6" t="str">
+      <c r="F34" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_JUL         </v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <f>B34</f>
         <v>32</v>
       </c>
-      <c r="I34" s="9" t="str">
+      <c r="I34" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_JUL]</v>
       </c>
-      <c r="J34" s="9" t="str">
+      <c r="J34" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Jul",</v>
       </c>
-      <c r="L34" s="10" t="str">
+      <c r="L34" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_JUL]</v>
       </c>
-      <c r="M34" s="10" t="str">
+      <c r="M34" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= " 7月",</v>
       </c>
@@ -4894,27 +4930,27 @@
       <c r="D35" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="6" t="str">
+      <c r="F35" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_AUG         </v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="I35" s="9" t="str">
+      <c r="I35" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_AUG]</v>
       </c>
-      <c r="J35" s="9" t="str">
+      <c r="J35" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Aug",</v>
       </c>
-      <c r="L35" s="10" t="str">
+      <c r="L35" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_AUG]</v>
       </c>
-      <c r="M35" s="10" t="str">
+      <c r="M35" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= " 8月",</v>
       </c>
@@ -4932,27 +4968,27 @@
       <c r="D36" t="s">
         <v>154</v>
       </c>
-      <c r="F36" s="6" t="str">
+      <c r="F36" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_SEP         </v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="I36" s="9" t="str">
+      <c r="I36" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_SEP]</v>
       </c>
-      <c r="J36" s="9" t="str">
+      <c r="J36" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Sep",</v>
       </c>
-      <c r="L36" s="10" t="str">
+      <c r="L36" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_SEP]</v>
       </c>
-      <c r="M36" s="10" t="str">
+      <c r="M36" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= " 9月",</v>
       </c>
@@ -4970,27 +5006,27 @@
       <c r="D37" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="6" t="str">
+      <c r="F37" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_OCT         </v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="I37" s="9" t="str">
+      <c r="I37" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_OCT]</v>
       </c>
-      <c r="J37" s="9" t="str">
+      <c r="J37" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Oct",</v>
       </c>
-      <c r="L37" s="10" t="str">
+      <c r="L37" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_OCT]</v>
       </c>
-      <c r="M37" s="10" t="str">
+      <c r="M37" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "10月",</v>
       </c>
@@ -5008,27 +5044,27 @@
       <c r="D38" t="s">
         <v>156</v>
       </c>
-      <c r="F38" s="6" t="str">
+      <c r="F38" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_NOV         </v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="I38" s="9" t="str">
+      <c r="I38" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_NOV]</v>
       </c>
-      <c r="J38" s="9" t="str">
+      <c r="J38" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Nov",</v>
       </c>
-      <c r="L38" s="10" t="str">
+      <c r="L38" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_NOV]</v>
       </c>
-      <c r="M38" s="10" t="str">
+      <c r="M38" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "11月",</v>
       </c>
@@ -5046,27 +5082,27 @@
       <c r="D39" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="6" t="str">
+      <c r="F39" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_DEC         </v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="I39" s="9" t="str">
+      <c r="I39" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_DEC]</v>
       </c>
-      <c r="J39" s="9" t="str">
+      <c r="J39" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Dec",</v>
       </c>
-      <c r="L39" s="10" t="str">
+      <c r="L39" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_DEC]</v>
       </c>
-      <c r="M39" s="10" t="str">
+      <c r="M39" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "12月",</v>
       </c>
@@ -5084,27 +5120,27 @@
       <c r="D40" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="6" t="str">
+      <c r="F40" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_SUNDAY         </v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="I40" s="9" t="str">
+      <c r="I40" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_SUNDAY]</v>
       </c>
-      <c r="J40" s="9" t="str">
+      <c r="J40" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Sun",</v>
       </c>
-      <c r="L40" s="10" t="str">
+      <c r="L40" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_SUNDAY]</v>
       </c>
-      <c r="M40" s="10" t="str">
+      <c r="M40" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "周日",</v>
       </c>
@@ -5122,27 +5158,27 @@
       <c r="D41" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="6" t="str">
+      <c r="F41" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_MONDAY         </v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="I41" s="9" t="str">
+      <c r="I41" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_MONDAY]</v>
       </c>
-      <c r="J41" s="9" t="str">
+      <c r="J41" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Mon",</v>
       </c>
-      <c r="L41" s="10" t="str">
+      <c r="L41" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_MONDAY]</v>
       </c>
-      <c r="M41" s="10" t="str">
+      <c r="M41" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "周一",</v>
       </c>
@@ -5160,27 +5196,27 @@
       <c r="D42" t="s">
         <v>160</v>
       </c>
-      <c r="F42" s="6" t="str">
+      <c r="F42" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_TUESDAY         </v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I42" s="9" t="str">
+      <c r="I42" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_TUESDAY]</v>
       </c>
-      <c r="J42" s="9" t="str">
+      <c r="J42" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Tue",</v>
       </c>
-      <c r="L42" s="10" t="str">
+      <c r="L42" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_TUESDAY]</v>
       </c>
-      <c r="M42" s="10" t="str">
+      <c r="M42" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "周二",</v>
       </c>
@@ -5198,27 +5234,27 @@
       <c r="D43" t="s">
         <v>161</v>
       </c>
-      <c r="F43" s="6" t="str">
+      <c r="F43" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_WEDNESDAY         </v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="I43" s="9" t="str">
+      <c r="I43" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_WEDNESDAY]</v>
       </c>
-      <c r="J43" s="9" t="str">
+      <c r="J43" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Wed",</v>
       </c>
-      <c r="L43" s="10" t="str">
+      <c r="L43" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_WEDNESDAY]</v>
       </c>
-      <c r="M43" s="10" t="str">
+      <c r="M43" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "周三",</v>
       </c>
@@ -5236,27 +5272,27 @@
       <c r="D44" t="s">
         <v>162</v>
       </c>
-      <c r="F44" s="6" t="str">
+      <c r="F44" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_THURSDAY         </v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="I44" s="9" t="str">
+      <c r="I44" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_THURSDAY]</v>
       </c>
-      <c r="J44" s="9" t="str">
+      <c r="J44" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Thu",</v>
       </c>
-      <c r="L44" s="10" t="str">
+      <c r="L44" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_THURSDAY]</v>
       </c>
-      <c r="M44" s="10" t="str">
+      <c r="M44" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "周四",</v>
       </c>
@@ -5274,27 +5310,27 @@
       <c r="D45" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="6" t="str">
+      <c r="F45" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_FRIDAY         </v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="I45" s="9" t="str">
+      <c r="I45" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_FRIDAY]</v>
       </c>
-      <c r="J45" s="9" t="str">
+      <c r="J45" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Fri",</v>
       </c>
-      <c r="L45" s="10" t="str">
+      <c r="L45" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_FRIDAY]</v>
       </c>
-      <c r="M45" s="10" t="str">
+      <c r="M45" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "周五",</v>
       </c>
@@ -5312,27 +5348,27 @@
       <c r="D46" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="6" t="str">
+      <c r="F46" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_SATURDAY         </v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="I46" s="9" t="str">
+      <c r="I46" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_SATURDAY]</v>
       </c>
-      <c r="J46" s="9" t="str">
+      <c r="J46" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Sat",</v>
       </c>
-      <c r="L46" s="10" t="str">
+      <c r="L46" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_SATURDAY]</v>
       </c>
-      <c r="M46" s="10" t="str">
+      <c r="M46" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "周六",</v>
       </c>
@@ -5350,27 +5386,27 @@
       <c r="D47" t="s">
         <v>165</v>
       </c>
-      <c r="F47" s="6" t="str">
+      <c r="F47" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_AM         </v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="I47" s="9" t="str">
+      <c r="I47" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_AM]</v>
       </c>
-      <c r="J47" s="9" t="str">
+      <c r="J47" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "am",</v>
       </c>
-      <c r="L47" s="10" t="str">
+      <c r="L47" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_AM]</v>
       </c>
-      <c r="M47" s="10" t="str">
+      <c r="M47" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "上午",</v>
       </c>
@@ -5388,27 +5424,27 @@
       <c r="D48" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="6" t="str">
+      <c r="F48" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_PM         </v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="6">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="I48" s="9" t="str">
+      <c r="I48" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_PM]</v>
       </c>
-      <c r="J48" s="9" t="str">
+      <c r="J48" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "pm",</v>
       </c>
-      <c r="L48" s="10" t="str">
+      <c r="L48" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_PM]</v>
       </c>
-      <c r="M48" s="10" t="str">
+      <c r="M48" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "下午",</v>
       </c>
@@ -5426,27 +5462,27 @@
       <c r="D49" t="s">
         <v>167</v>
       </c>
-      <c r="F49" s="6" t="str">
+      <c r="F49" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_YEAR         </v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="I49" s="9" t="str">
+      <c r="I49" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_YEAR]</v>
       </c>
-      <c r="J49" s="9" t="str">
+      <c r="J49" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Year:",</v>
       </c>
-      <c r="L49" s="10" t="str">
+      <c r="L49" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_YEAR]</v>
       </c>
-      <c r="M49" s="10" t="str">
+      <c r="M49" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "  年度:",</v>
       </c>
@@ -5464,27 +5500,27 @@
       <c r="D50" t="s">
         <v>171</v>
       </c>
-      <c r="F50" s="6" t="str">
+      <c r="F50" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_MONTH         </v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="I50" s="9" t="str">
+      <c r="I50" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_MONTH]</v>
       </c>
-      <c r="J50" s="9" t="str">
+      <c r="J50" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Month:",</v>
       </c>
-      <c r="L50" s="10" t="str">
+      <c r="L50" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_MONTH]</v>
       </c>
-      <c r="M50" s="10" t="str">
+      <c r="M50" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "  月份:",</v>
       </c>
@@ -5502,27 +5538,27 @@
       <c r="D51" t="s">
         <v>168</v>
       </c>
-      <c r="F51" s="6" t="str">
+      <c r="F51" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_DATE         </v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="I51" s="9" t="str">
+      <c r="I51" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_DATE]</v>
       </c>
-      <c r="J51" s="9" t="str">
+      <c r="J51" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Date:",</v>
       </c>
-      <c r="L51" s="10" t="str">
+      <c r="L51" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_DATE]</v>
       </c>
-      <c r="M51" s="10" t="str">
+      <c r="M51" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "  日期:",</v>
       </c>
@@ -5540,27 +5576,27 @@
       <c r="D52" t="s">
         <v>169</v>
       </c>
-      <c r="F52" s="6" t="str">
+      <c r="F52" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_HOUR         </v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="6">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I52" s="9" t="str">
+      <c r="I52" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_HOUR]</v>
       </c>
-      <c r="J52" s="9" t="str">
+      <c r="J52" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Hour:",</v>
       </c>
-      <c r="L52" s="10" t="str">
+      <c r="L52" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_HOUR]</v>
       </c>
-      <c r="M52" s="10" t="str">
+      <c r="M52" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "  小时:",</v>
       </c>
@@ -5578,27 +5614,27 @@
       <c r="D53" t="s">
         <v>170</v>
       </c>
-      <c r="F53" s="6" t="str">
+      <c r="F53" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#define   STR_MINUTE         </v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="6">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="I53" s="9" t="str">
+      <c r="I53" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  [STR_MINUTE]</v>
       </c>
-      <c r="J53" s="9" t="str">
+      <c r="J53" s="7" t="str">
         <f t="shared" si="3"/>
         <v>= "Minute:",</v>
       </c>
-      <c r="L53" s="10" t="str">
+      <c r="L53" s="8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  [STR_MINUTE]</v>
       </c>
-      <c r="M53" s="10" t="str">
+      <c r="M53" s="8" t="str">
         <f t="shared" si="5"/>
         <v>= "  分钟:",</v>
       </c>
@@ -5610,27 +5646,27 @@
       <c r="B54" s="1">
         <v>52</v>
       </c>
-      <c r="F54" s="6" t="str">
+      <c r="F54" s="5" t="str">
         <f>CONCATENATE("#define   ",A54,"         ")</f>
         <v xml:space="preserve">#define   STR_LAST         </v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="6">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="I54" s="9" t="str">
+      <c r="I54" s="7" t="str">
         <f t="shared" si="2"/>
         <v>};</v>
       </c>
-      <c r="J54" s="9" t="str">
+      <c r="J54" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L54" s="10" t="str">
+      <c r="L54" s="8" t="str">
         <f t="shared" si="4"/>
         <v>};</v>
       </c>
-      <c r="M54" s="10" t="str">
+      <c r="M54" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5644,4 +5680,2703 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BU124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="118" width="2.25" customWidth="1"/>
+    <col min="119" max="121" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:57">
+      <c r="Y1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>1</v>
+      </c>
+      <c r="AE1">
+        <v>1</v>
+      </c>
+      <c r="AF1">
+        <v>1</v>
+      </c>
+      <c r="AG1">
+        <v>1</v>
+      </c>
+      <c r="AI1">
+        <v>1</v>
+      </c>
+      <c r="AL1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="7:57">
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="7:57">
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="7:57">
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="7:57">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="7:57">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="7:57">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="7:57">
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="7:57">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="7:57">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="7:57">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="BE14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="BF17">
+        <v>1</v>
+      </c>
+      <c r="BG17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="BD18">
+        <v>1</v>
+      </c>
+      <c r="BE18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="BC19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="BI20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="BJ23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="BK26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="BK29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <v>1</v>
+      </c>
+      <c r="BH31">
+        <v>1</v>
+      </c>
+      <c r="BI31">
+        <v>1</v>
+      </c>
+      <c r="BJ31">
+        <v>1</v>
+      </c>
+      <c r="BK31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="BH32">
+        <v>1</v>
+      </c>
+      <c r="BI32">
+        <v>1</v>
+      </c>
+      <c r="BJ32">
+        <v>1</v>
+      </c>
+      <c r="BK32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="BH33">
+        <v>1</v>
+      </c>
+      <c r="BI33">
+        <v>1</v>
+      </c>
+      <c r="BJ33">
+        <v>1</v>
+      </c>
+      <c r="BK33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="BK36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="BK39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="BJ42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="BC45">
+        <v>1</v>
+      </c>
+      <c r="BI45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:63">
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="BD46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="BE47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="BF48">
+        <v>1</v>
+      </c>
+      <c r="BG48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="7:57">
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="BE51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="7:57">
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="BC54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="7:57">
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1</v>
+      </c>
+      <c r="BA56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="7:57">
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="AS57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="7:57">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="AT58">
+        <v>1</v>
+      </c>
+      <c r="AX58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="7:57">
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="AT59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="7:57">
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="AU60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="7:57">
+      <c r="AE61">
+        <v>1</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="7:57">
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
+      </c>
+      <c r="AF62">
+        <v>1</v>
+      </c>
+      <c r="AG62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="7:57">
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
+      </c>
+      <c r="AF63">
+        <v>1</v>
+      </c>
+      <c r="AG63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="7:57">
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>1</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
+      </c>
+      <c r="AF64">
+        <v>1</v>
+      </c>
+      <c r="AG64">
+        <v>1</v>
+      </c>
+      <c r="AI64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:73">
+      <c r="A68">
+        <f>A1+A2*2+A3*4+A4*8+A5*16+A6*32+A7*64+A8*128</f>
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:BL68" si="0">B1+B2*2+B3*4+B4*8+B5*16+B6*32+B7*64+B8*128</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AF68">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AG68">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AH68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AM68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AP68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AS68">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="AT68">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="AU68">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AV68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="AY68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BL68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BQ68">
+        <v>1</v>
+      </c>
+      <c r="BU68">
+        <f>MOD(BQ68,8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:73">
+      <c r="A76">
+        <f t="shared" ref="A76:BL76" si="1">A9+A10*2+A11*4+A12*8+A13*16+A14*32+A15*64+A16*128</f>
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AS76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BB76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC76">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="BD76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="BF76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BL76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ76">
+        <v>9</v>
+      </c>
+      <c r="BU76">
+        <f t="shared" ref="BU69:BU131" si="2">MOD(BQ76,8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:73">
+      <c r="A84">
+        <f t="shared" ref="A84:BL84" si="3">A17+A18*2+A19*4+A20*8+A21*16+A22*32+A23*64+A24*128</f>
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AT84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AV84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AX84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AZ84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BA84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="BD84">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="BE84">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="BF84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="BG84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="BH84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="BJ84">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="BK84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BL84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BQ84">
+        <v>17</v>
+      </c>
+      <c r="BU84">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:73">
+      <c r="A92">
+        <f t="shared" ref="A92:BL92" si="4">A25+A26*2+A27*4+A28*8+A29*16+A30*32+A31*64+A32*128</f>
+        <v>210</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="AF92">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="AG92">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="AH92">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="AI92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AS92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AW92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AY92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BC92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BD92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="BI92">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="BJ92">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="BK92">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="BL92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BQ92">
+        <v>25</v>
+      </c>
+      <c r="BU92">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:73">
+      <c r="A100">
+        <f t="shared" ref="A100:BL100" si="5">A33+A34*2+A35*4+A36*8+A37*16+A38*32+A39*64+A40*128</f>
+        <v>73</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AE100">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AF100">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AG100">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AH100">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AP100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AR100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AS100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AT100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AU100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AV100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AW100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AX100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AZ100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BA100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BB100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BC100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BD100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BE100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BF100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BH100">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BI100">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BJ100">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BK100">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="BL100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BQ100">
+        <v>33</v>
+      </c>
+      <c r="BU100">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:73">
+      <c r="A108">
+        <f t="shared" ref="A108:BL108" si="6">A41+A42*2+A43*4+A44*8+A45*16+A46*32+A47*64+A48*128</f>
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AR108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AT108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AV108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AW108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AX108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AZ108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BA108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BB108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BC108">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="BD108">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="BE108">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="BF108">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="BG108">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="BH108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BI108">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="BJ108">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="BK108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BL108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BQ108">
+        <v>41</v>
+      </c>
+      <c r="BU108">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:73">
+      <c r="A116">
+        <f t="shared" ref="A116:BL116" si="7">A49+A50*2+A51*4+A52*8+A53*16+A54*32+A55*64+A56*128</f>
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR116">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="AS116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AU116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AV116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AW116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AX116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AY116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AZ116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BA116">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="BB116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BC116">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="BD116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="BF116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BH116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BJ116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BK116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BL116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BQ116">
+        <v>49</v>
+      </c>
+      <c r="BU116">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:73">
+      <c r="A124">
+        <f t="shared" ref="A124:BL124" si="8">A57+A58*2+A59*4+A60*8+A61*16+A62*32+A63*64+A64*128</f>
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="W124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="Z124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB124">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="AC124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="AF124">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="AG124">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="AH124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="AJ124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="AM124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO124">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="AP124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AQ124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR124">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="AS124">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AT124">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AU124">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AV124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX124">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AY124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AZ124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BA124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BD124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BI124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BK124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BL124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BQ124">
+        <v>57</v>
+      </c>
+      <c r="BU124">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="AL1:BE13 AK14:BE32 BF24:BG30 BF1:BJ23 AI1:AJ32 AI33:AI53 E46:J62 K46:AB53 AI56:AI64 BM1:DN71 BH24:BK64 E36:AB44 A1:AB34 A36:D62 AC1:AH53 AJ33:BE64 AI65:BL71 BF34:BG64 K56:AH71 BM69:BQ131 A63:J131 B68:BL131 BU69:BU131 H42:L51">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>